--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,12 +509,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Romania', 'Slovakia']</t>
+          <t>['Czech Republic', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Romania', 'Sweden']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Romania', 'Slovakia']</t>
+          <t>['Czech Republic', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Romania', 'Sweden']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['Albania', 'Republic of Ireland']</t>
+          <t>['Albania', 'Ireland']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 2, -3, 1]</t>
+          <t>['Ireland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Iceland', 'Northern Ireland', 'Republic of Ireland', 'Slovakia']</t>
+          <t>['Iceland', 'Ireland', 'Northern Ireland', 'Slovakia']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 4, -2, 2]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Iceland', 'Northern Ireland', 'Republic of Ireland', 'Slovakia']</t>
+          <t>['Iceland', 'Ireland', 'Northern Ireland', 'Slovakia']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 4, -2, 2]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Republic of Ireland', 'Slovakia']</t>
+          <t>['Ireland', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 4, -2, 2]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">

--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,55 +446,65 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>top_four_third_teams</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_two_third_teams</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>tied_teams</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>change_flag</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>change_count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Group E</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
@@ -509,51 +519,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2016-06-19</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>['Romania', 'Sweden']</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['Romania', 'Czech Republic']</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['Romania', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -564,55 +584,65 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -623,55 +653,65 @@
         <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -682,55 +722,65 @@
         <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -741,57 +791,67 @@
         <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 1]</t>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -800,57 +860,67 @@
         <v>2016</v>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Romania', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 1]</t>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -859,57 +929,67 @@
         <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Romania', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 1]</t>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -918,57 +998,67 @@
         <v>2016</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Romania', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 1]</t>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -977,57 +1067,67 @@
         <v>2016</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 2]</t>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1036,57 +1136,67 @@
         <v>2016</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="inlineStr">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 2]</t>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1095,57 +1205,67 @@
         <v>2016</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 2]</t>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1154,57 +1274,67 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>2016-06-21</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 2]</t>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1213,57 +1343,67 @@
         <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Albania', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 3]</t>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
     </row>
@@ -1272,57 +1412,67 @@
         <v>2016</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="inlineStr">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 3]</t>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, -1, 1]</t>
         </is>
       </c>
     </row>
@@ -1331,57 +1481,67 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Albania', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 3]</t>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 2]</t>
         </is>
       </c>
     </row>
@@ -1390,57 +1550,67 @@
         <v>2016</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>2016-06-22</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, -1, 3]</t>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -1449,57 +1619,67 @@
         <v>2016</v>
       </c>
       <c r="B18" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Albania', 'Iceland', 'Northern Ireland', 'Slovakia']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Albania', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -3, 1]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>['Iceland', 3, 0, 3]</t>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 3]</t>
         </is>
       </c>
     </row>
@@ -1508,57 +1688,67 @@
         <v>2016</v>
       </c>
       <c r="B19" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Iceland', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
-        <v>9</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>['Iceland', 3, 0, 3]</t>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
     </row>
@@ -1567,57 +1757,67 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['Iceland', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="n">
-        <v>9</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>['Iceland', 3, 0, 3]</t>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
     </row>
@@ -1626,55 +1826,65 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>2016-06-22</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>['Iceland', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['Albania', 'Ireland']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>['Albania', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>9</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>['Ireland', 2, -3, 1]</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Iceland', 3, 0, 3]</t>
         </is>
@@ -1685,57 +1895,67 @@
         <v>2016</v>
       </c>
       <c r="B22" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['Iceland', 'Ireland', 'Northern Ireland', 'Slovakia']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['Turkey', 'Albania']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Albania', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>10</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>['Ireland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>['Iceland', 3, 0, 3]</t>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
     </row>
@@ -1744,57 +1964,67 @@
         <v>2016</v>
       </c>
       <c r="B23" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['Iceland', 'Ireland', 'Northern Ireland', 'Slovakia']</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['Turkey', 'Albania']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Albania', 'Ireland']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>10</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>['Ireland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>['Iceland', 3, 0, 3]</t>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>['Ireland', 2, -3, 1]</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
     </row>
@@ -1803,55 +2033,65 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>2016-06-22</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>['Ireland', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>['Turkey', 'Albania']</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>11</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 4]</t>
         </is>
@@ -1866,51 +2106,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>['Austria', 'Germany', 'Russia', 'Spain']</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -1921,55 +2171,65 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['Austria', 'Germany', 'Russia', 'Spain']</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>['Switzerland', 2, -3, 1]</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -1980,55 +2240,65 @@
         <v>2021</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>['Spain', 'Croatia']</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -2039,57 +2309,67 @@
         <v>2021</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Switzerland']</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>['Austria', 'Croatia', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Austria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 3]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
     </row>
@@ -2098,57 +2378,67 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Switzerland']</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+          <t>['Austria', 'Croatia', 'Hungary', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['Russia', 'Spain']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Austria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2157,57 +2447,67 @@
         <v>2021</v>
       </c>
       <c r="B30" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>['Austria', 'Croatia', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>['Russia', 'Spain']</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Austria', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>3</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2220,53 +2520,63 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2279,53 +2589,63 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>4</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2334,57 +2654,67 @@
         <v>2021</v>
       </c>
       <c r="B33" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>4</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2393,57 +2723,67 @@
         <v>2021</v>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>['Ukraine', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['Spain', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>4</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2452,57 +2792,67 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4</v>
-      </c>
-      <c r="H35" t="inlineStr">
+          <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Russia']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>['Russia', 4, -2, 1]</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2511,57 +2861,67 @@
         <v>2021</v>
       </c>
       <c r="B36" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
+          <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Finland']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2570,57 +2930,67 @@
         <v>2021</v>
       </c>
       <c r="B37" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>5</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2629,57 +2999,67 @@
         <v>2021</v>
       </c>
       <c r="B38" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>['Croatia', 'Denmark', 'Hungary', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>6</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2688,57 +3068,67 @@
         <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>['Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>7</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2747,57 +3137,67 @@
         <v>2021</v>
       </c>
       <c r="B40" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>7</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -2, 2]</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2806,57 +3206,67 @@
         <v>2021</v>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>7</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -2, 2]</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Croatia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2865,57 +3275,67 @@
         <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['Finland', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>7</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 6]</t>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2924,57 +3344,67 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7</v>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 6]</t>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -2983,57 +3413,67 @@
         <v>2021</v>
       </c>
       <c r="B44" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Portugal', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['Finland', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>7</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 6]</t>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -3042,57 +3482,67 @@
         <v>2021</v>
       </c>
       <c r="B45" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
-        <v>8</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="n">
+        <v>11</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -3101,57 +3551,67 @@
         <v>2021</v>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8</v>
-      </c>
-      <c r="H46" t="inlineStr">
+          <t>['Czech Republic', 'Hungary', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Finland']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -3160,57 +3620,67 @@
         <v>2021</v>
       </c>
       <c r="B47" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['Croatia', 'Denmark', 'Hungary', 'Switzerland']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia']</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="n">
-        <v>9</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 3]</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
+      <c r="I47" t="n">
+        <v>13</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
     </row>
@@ -3219,57 +3689,67 @@
         <v>2021</v>
       </c>
       <c r="B48" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['Croatia', 'Denmark', 'Germany', 'Switzerland']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia']</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="n">
-        <v>10</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 3]</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
+      <c r="I48" t="n">
+        <v>14</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3278,57 +3758,67 @@
         <v>2021</v>
       </c>
       <c r="B49" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['Croatia', 'Denmark', 'Germany', 'Switzerland']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia']</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="G49" t="n">
-        <v>10</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 3]</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
+      <c r="I49" t="n">
+        <v>14</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -4, 2]</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3337,57 +3827,67 @@
         <v>2021</v>
       </c>
       <c r="B50" t="n">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['Croatia', 'Denmark', 'Hungary', 'Switzerland']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>11</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 3]</t>
-        </is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Finland']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -4, 2]</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3396,57 +3896,67 @@
         <v>2021</v>
       </c>
       <c r="B51" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>12</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 3]</t>
-        </is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Finland']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -4, 2]</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3455,57 +3965,67 @@
         <v>2021</v>
       </c>
       <c r="B52" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="n">
-        <v>12</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, -1, 3]</t>
-        </is>
+      <c r="I52" t="n">
+        <v>14</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3514,57 +4034,67 @@
         <v>2021</v>
       </c>
       <c r="B53" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['Russia', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
-        <v>12</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
+      <c r="I53" t="n">
+        <v>14</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>['Croatia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -4, 2]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3573,57 +4103,67 @@
         <v>2021</v>
       </c>
       <c r="B54" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['Russia', 'Slovakia']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>13</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -3, 2]</t>
-        </is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 3]</t>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
     </row>
@@ -3632,57 +4172,67 @@
         <v>2021</v>
       </c>
       <c r="B55" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>13</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>['Finland', 3, -1, 1]</t>
-        </is>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 3]</t>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
     </row>
@@ -3691,57 +4241,67 @@
         <v>2021</v>
       </c>
       <c r="B56" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="n">
-        <v>13</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56" t="n">
+        <v>15</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 3]</t>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
     </row>
@@ -3750,57 +4310,67 @@
         <v>2021</v>
       </c>
       <c r="B57" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Portugal', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>13</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 3]</t>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
     </row>
@@ -3809,57 +4379,67 @@
         <v>2021</v>
       </c>
       <c r="B58" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>1</v>
       </c>
-      <c r="G58" t="n">
-        <v>14</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="I58" t="n">
+        <v>17</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 6]</t>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
     </row>
@@ -3868,57 +4448,67 @@
         <v>2021</v>
       </c>
       <c r="B59" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>14</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 6]</t>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
     </row>
@@ -3931,51 +4521,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -3986,57 +4586,67 @@
         <v>2024</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
+          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4045,57 +4655,67 @@
         <v>2024</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="inlineStr">
+          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4104,57 +4724,67 @@
         <v>2024</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 2]</t>
-        </is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['Albania', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Albania', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4163,57 +4793,67 @@
         <v>2024</v>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Ukraine']</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="G64" t="n">
-        <v>3</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>['Ukraine', 4, -2, 2]</t>
-        </is>
-      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4222,57 +4862,67 @@
         <v>2024</v>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Ukraine']</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 2]</t>
-        </is>
+          <t>['Austria', 'Denmark', 'Italy', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['Italy', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>['Ukraine', 4, -2, 2]</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4281,57 +4931,67 @@
         <v>2024</v>
       </c>
       <c r="B66" t="n">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 2]</t>
-        </is>
+      <c r="I66" t="n">
+        <v>3</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4340,57 +5000,67 @@
         <v>2024</v>
       </c>
       <c r="B67" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
         <v>1</v>
       </c>
-      <c r="G67" t="n">
-        <v>5</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 2]</t>
-        </is>
+      <c r="I67" t="n">
+        <v>4</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4399,57 +5069,67 @@
         <v>2024</v>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>5</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 2]</t>
-        </is>
-      </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4458,57 +5138,67 @@
         <v>2024</v>
       </c>
       <c r="B69" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>5</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4517,57 +5207,67 @@
         <v>2024</v>
       </c>
       <c r="B70" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>5</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4576,57 +5276,67 @@
         <v>2024</v>
       </c>
       <c r="B71" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Georgia', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>5</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4635,57 +5345,67 @@
         <v>2024</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4694,57 +5414,67 @@
         <v>2024</v>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="G73" t="n">
-        <v>7</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+      <c r="I73" t="n">
+        <v>8</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4753,57 +5483,67 @@
         <v>2024</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Slovakia', 'Turkey']</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="G74" t="n">
-        <v>8</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+      <c r="I74" t="n">
+        <v>9</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 1, 5]</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>['Ukraine', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4812,57 +5552,67 @@
         <v>2024</v>
       </c>
       <c r="B75" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Slovakia', 'Turkey']</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>8</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>10</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 1, 5]</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>['Turkey', 4, -1, 4]</t>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
     </row>
@@ -4871,57 +5621,67 @@
         <v>2024</v>
       </c>
       <c r="B76" t="n">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
+          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
         <v>1</v>
       </c>
-      <c r="G76" t="n">
-        <v>9</v>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+      <c r="I76" t="n">
+        <v>11</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>['Turkey', 4, -1, 4]</t>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
     </row>
@@ -4930,57 +5690,67 @@
         <v>2024</v>
       </c>
       <c r="B77" t="n">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['Italy', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
+          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="G77" t="n">
-        <v>9</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+      <c r="I77" t="n">
+        <v>11</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>['Turkey', 4, -1, 4]</t>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
     </row>
@@ -4989,55 +5759,65 @@
         <v>2024</v>
       </c>
       <c r="B78" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>['Italy', 'Scotland']</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" t="n">
-        <v>10</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>['Italy', 3, -1, 2]</t>
-        </is>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
@@ -5048,57 +5828,67 @@
         <v>2024</v>
       </c>
       <c r="B79" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>10</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>['Scotland', 2, -4, 2]</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
+          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, 0, 4]</t>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['Turkey', 4, -1, 4]</t>
         </is>
       </c>
     </row>
@@ -5107,55 +5897,65 @@
         <v>2024</v>
       </c>
       <c r="B80" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>10</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>

--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,55 +456,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>top_four_third_teams</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>last_two_third_teams</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tied_teams</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>change_flag</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>change_count</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Group A</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Group B</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Group C</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Group D</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Group E</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
@@ -529,51 +534,56 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['Romania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['Romania', 'Czech Republic']</t>
         </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>['Romania', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -598,51 +608,56 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -667,51 +682,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -736,51 +756,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -805,51 +830,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -874,51 +904,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -943,51 +978,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1012,51 +1052,56 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1081,51 +1126,56 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1150,51 +1200,56 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1219,51 +1274,56 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1288,51 +1348,56 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>['Portugal', 2, 0, 1]</t>
         </is>
@@ -1357,51 +1422,56 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['Albania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 1]</t>
         </is>
@@ -1426,51 +1496,56 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>['Portugal', 2, -1, 1]</t>
         </is>
@@ -1495,51 +1570,56 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['Albania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 2]</t>
         </is>
@@ -1564,51 +1644,56 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>6</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>['Portugal', 2, -1, 2]</t>
         </is>
@@ -1633,51 +1718,56 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['Albania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>7</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 3]</t>
         </is>
@@ -1702,51 +1792,56 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>8</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>['Portugal', 2, -1, 3]</t>
         </is>
@@ -1771,51 +1866,56 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>['Portugal', 2, -1, 3]</t>
         </is>
@@ -1840,51 +1940,56 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>['Iceland', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['Albania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>9</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>['Iceland', 3, 0, 3]</t>
         </is>
@@ -1909,51 +2014,56 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['Albania', 'Sweden']</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>10</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 4]</t>
         </is>
@@ -1978,51 +2088,56 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['Albania', 'Ireland']</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>10</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Ireland', 2, -3, 1]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 4]</t>
         </is>
@@ -2047,51 +2162,56 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>['Ireland', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['Turkey', 'Albania']</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>11</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 4]</t>
         </is>
@@ -2116,51 +2236,56 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>['Austria', 'Germany', 'Russia', 'Spain']</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -2185,51 +2310,56 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['Spain', 'Croatia']</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -2, 2]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -2254,51 +2384,56 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['Spain', 'Croatia']</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -2323,51 +2458,56 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>['Austria', 'Croatia', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['Germany', 'Spain']</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['Austria', 'Croatia']</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>['Germany', 3, 1, 4]</t>
         </is>
@@ -2392,51 +2532,56 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>['Austria', 'Croatia', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['Russia', 'Spain']</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['Austria', 'Croatia']</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2461,51 +2606,56 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>['Austria', 'Croatia', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['Russia', 'Spain']</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>['Austria', 'Croatia']</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2530,51 +2680,56 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>4</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2599,51 +2754,56 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>4</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2668,51 +2828,56 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>4</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2737,51 +2902,56 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Russia', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['Spain', 'Ukraine']</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>4</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2806,51 +2976,56 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>5</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2875,51 +3050,56 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>5</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -2944,51 +3124,56 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Spain', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['Ukraine', 'Denmark']</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>5</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3013,51 +3198,56 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>['Croatia', 'Denmark', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['Ukraine', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>6</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3082,51 +3272,56 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>7</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3151,51 +3346,56 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>7</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3220,51 +3420,56 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>7</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3289,51 +3494,56 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>['Finland', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>8</v>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3358,51 +3568,56 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>['Croatia', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>9</v>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3427,51 +3642,56 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>['Finland', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>10</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3496,51 +3716,56 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>11</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3565,51 +3790,56 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Spain', 'Switzerland']</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>12</v>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3634,51 +3864,56 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>13</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 3]</t>
         </is>
@@ -3703,51 +3938,56 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>14</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -3772,51 +4012,56 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>14</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -3841,51 +4086,56 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>14</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -3910,51 +4160,56 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>14</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -2, 2]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -3979,51 +4234,56 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>14</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -4048,51 +4308,56 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>14</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -4117,51 +4382,56 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>14</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 6]</t>
         </is>
@@ -4186,51 +4456,56 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>15</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 2]</t>
         </is>
@@ -4255,51 +4530,56 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>15</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 2]</t>
         </is>
@@ -4324,51 +4604,56 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Portugal', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>16</v>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>['Portugal', 3, 0, 6]</t>
         </is>
@@ -4393,51 +4678,56 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>17</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>['Hungary', 4, -2, 2]</t>
         </is>
@@ -4462,51 +4752,56 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>18</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>['Germany', 4, 1, 5]</t>
         </is>
@@ -4531,51 +4826,56 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4600,51 +4900,56 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4669,51 +4974,56 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4738,51 +5048,56 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4807,51 +5122,56 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>1</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4876,51 +5196,56 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Italy', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>2</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -4945,51 +5270,56 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>3</v>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5014,51 +5344,56 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>['Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>1</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>4</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5083,51 +5418,56 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>5</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5152,51 +5492,56 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>5</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5221,51 +5566,56 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>6</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5290,51 +5640,56 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>7</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5359,51 +5714,56 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>7</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5428,51 +5788,56 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>8</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5497,51 +5862,56 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>['Denmark', 'Hungary', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>9</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>['Ukraine', 4, -2, 2]</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5566,51 +5936,56 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>10</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>['Czech Republic', 2, -1, 2]</t>
         </is>
@@ -5635,51 +6010,56 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>11</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>['Georgia', 4, -1, 3]</t>
         </is>
@@ -5704,51 +6084,56 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>11</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>['Georgia', 4, -1, 3]</t>
         </is>
@@ -5773,51 +6158,56 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>11</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
@@ -5842,51 +6232,56 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>12</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>['Turkey', 4, -1, 4]</t>
         </is>
@@ -5911,51 +6306,56 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>13</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>

--- a/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/best_four_third_teams_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Group F</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>half_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -588,22 +593,23 @@
           <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -613,12 +619,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Austria', 'Germany', 'Russia', 'Spain']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -627,52 +633,55 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -682,17 +691,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -704,49 +713,52 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -756,17 +768,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -778,49 +790,52 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -830,17 +845,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -852,69 +867,72 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -923,72 +941,75 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1004,45 +1025,48 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1052,17 +1076,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Italy', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1071,52 +1095,55 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1126,17 +1153,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Turkey', 'Sweden']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1145,57 +1172,60 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1205,71 +1235,74 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Turkey', 'Sweden']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1279,12 +1312,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1296,54 +1329,57 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1353,12 +1389,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1370,49 +1406,52 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B14" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1422,17 +1461,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1441,52 +1480,55 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B15" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1496,71 +1538,74 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1570,71 +1615,74 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1644,17 +1692,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1666,49 +1714,52 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1718,17 +1769,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Netherlands', 'Ukraine']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1740,49 +1791,52 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B19" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1792,17 +1846,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1814,128 +1868,134 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
+          <t>['Portugal', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B20" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2016-06-22</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['Albania', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
-        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1945,12 +2005,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>['Iceland', 'Northern Ireland', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1959,57 +2019,60 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
-        </is>
+          <t>['Iceland', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B22" t="n">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2019,66 +2082,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
-        </is>
+          <t>['Portugal', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="B23" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2088,17 +2154,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+          <t>['Northern Ireland', 'Portugal', 'Slovakia', 'Turkey']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Albania', 'Ireland']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2107,114 +2173,4428 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Ireland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
-        </is>
+          <t>['Portugal', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="n">
+        <v>85</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2016-06-22</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['Ireland', 'Northern Ireland', 'Portugal', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Turkey', 'Albania']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['Ireland', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 4]</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Spain']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>['Switzerland', 2, -3, 1]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B28" t="n">
+        <v>62</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 3]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="n">
+        <v>68</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="n">
+        <v>39</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['Austria', 'Germany', 'Russia', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="n">
+        <v>21</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['Germany', 'Russia', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="n">
+        <v>24</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['Germany', 'Russia', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['Germany', 'Russia', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="n">
+        <v>58</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['Germany', 'Russia', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="n">
+        <v>74</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Russia', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="n">
+        <v>81</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Finland', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="n">
+        <v>38</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="n">
+        <v>59</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Germany', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="n">
+        <v>70</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="n">
+        <v>79</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Finland', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -1, 1]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="n">
+        <v>82</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Finland', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Finland', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Germany', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Finland']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>['Croatia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['Germany', 'Spain', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Finland', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B45" t="n">
+        <v>77</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Finland']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Spain', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Finland']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="n">
+        <v>61</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="n">
+        <v>84</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="n">
+        <v>94</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="n">
+        <v>30</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Finland']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Finland']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B52" t="n">
+        <v>56</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B53" t="n">
+        <v>67</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -4, 2]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B54" t="n">
+        <v>71</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B55" t="n">
+        <v>11</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B56" t="n">
+        <v>31</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>10</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B57" t="n">
+        <v>47</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Portugal', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>11</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 6]</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B58" t="n">
+        <v>60</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Hungary', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B59" t="n">
+        <v>66</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>13</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
         <v>2024</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -4, 2]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Albania', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -4, 2]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Albania', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B62" t="n">
+        <v>92</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['Albania', 'Austria', 'Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -4, 2]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Albania', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Albania', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Albania', 2, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 2]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B65" t="n">
+        <v>55</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Italy', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Italy', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B66" t="n">
+        <v>98</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B68" t="n">
+        <v>47</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B70" t="n">
+        <v>59</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B71" t="n">
+        <v>75</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B72" t="n">
+        <v>79</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['Austria', 'Denmark', 'Hungary', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B73" t="n">
+        <v>80</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['Ukraine', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B75" t="n">
+        <v>37</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Hungary', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>10</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>11</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B77" t="n">
+        <v>51</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>11</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B78" t="n">
+        <v>57</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Georgia']</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B79" t="n">
+        <v>66</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Netherlands', 'Slovakia', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['Turkey', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B80" t="n">
         <v>94</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>['Denmark', 'Georgia', 'Netherlands', 'Slovakia']</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
         <v>13</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
